--- a/biology/Botanique/Reinette_clermontoise_(Faux_Canada)/Reinette_clermontoise_(Faux_Canada).xlsx
+++ b/biology/Botanique/Reinette_clermontoise_(Faux_Canada)/Reinette_clermontoise_(Faux_Canada).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Reinette clermontoise (Faux Canada) est le nom d'un cultivar de pommier domestique.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette pomme tire son nom de la ville de Clermont, dans le département de l'Oise où elle a été créée par Jules Labitte[1], créateur en 1902, d’une « ferme fruitière ». La reinette clermontoise a été créée avant 1906, elle ressemble à la Canada Gris d'où son autre nom de « Faux Canada »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette pomme tire son nom de la ville de Clermont, dans le département de l'Oise où elle a été créée par Jules Labitte, créateur en 1902, d’une « ferme fruitière ». La reinette clermontoise a été créée avant 1906, elle ressemble à la Canada Gris d'où son autre nom de « Faux Canada ».
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>variété discoïdale,
 épiderme : de gris rugueux à vert jaunâtre recouvert de plaques fauves, lui l’apparence de la reinette du Canada
@@ -554,7 +570,7 @@
 chair : fine, blanche croquante, à saveur relevée et parfumée,
 maturité : Octobre à mars,
 conservation : bonne conservation jusqu’en mai,
-arbre : de vigueur moyenne avec des rameaux plaqué de gris[3],
+arbre : de vigueur moyenne avec des rameaux plaqué de gris,
 floraison moyenne : moyenne.</t>
         </is>
       </c>
@@ -583,12 +599,14 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Reinette clermontoise est spécialement cultivée en verger, en plein vent mais, elle peut également être cultivée en cordons.
 C'est une pomme à couteau qui se cueille dans la première quinzaine d'octobre. Cette variété est bonne pollinisatrice.
 D'une grande rusticité et de bonne conservation, le fruit est de calibre moyen (65-70 mm), de forme oblongue et irrégulière. 
-Elle est sensible à la tavelure et à l'oïdium[4].
+Elle est sensible à la tavelure et à l'oïdium.
 </t>
         </is>
       </c>
